--- a/data/pca/factorExposure/factorExposure_2009-06-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01688801611458097</v>
+        <v>0.01628827993094107</v>
       </c>
       <c r="C2">
-        <v>-0.001545146181055847</v>
+        <v>0.001055525257129799</v>
       </c>
       <c r="D2">
-        <v>0.009079920099852964</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009102823513360633</v>
+      </c>
+      <c r="E2">
+        <v>-0.001651542181298891</v>
+      </c>
+      <c r="F2">
+        <v>-0.01174700491684658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08973615216188674</v>
+        <v>0.0920429626502877</v>
       </c>
       <c r="C4">
-        <v>-0.02017360834552161</v>
+        <v>0.01544426634547712</v>
       </c>
       <c r="D4">
-        <v>0.07748411894433477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08194375579086252</v>
+      </c>
+      <c r="E4">
+        <v>-0.02767317833816907</v>
+      </c>
+      <c r="F4">
+        <v>0.03265798768239994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.351260966093607e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.555140928460819e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0001057973008544783</v>
+      </c>
+      <c r="E5">
+        <v>4.707223764024355e-05</v>
+      </c>
+      <c r="F5">
+        <v>-6.931150637528575e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1528436881500974</v>
+        <v>0.1613952576500979</v>
       </c>
       <c r="C6">
-        <v>-0.03059274190556283</v>
+        <v>0.02971369368238801</v>
       </c>
       <c r="D6">
-        <v>-0.03590340642776624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02627013791641044</v>
+      </c>
+      <c r="E6">
+        <v>-0.008745412525204386</v>
+      </c>
+      <c r="F6">
+        <v>0.04082440454281914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06060879974985874</v>
+        <v>0.06283928473803495</v>
       </c>
       <c r="C7">
-        <v>-0.002141800491042164</v>
+        <v>-0.001092168667771876</v>
       </c>
       <c r="D7">
-        <v>0.04875349233932304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05410943483956529</v>
+      </c>
+      <c r="E7">
+        <v>-0.01558036769515755</v>
+      </c>
+      <c r="F7">
+        <v>0.04944692305123916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06129719218658495</v>
+        <v>0.05708662273340199</v>
       </c>
       <c r="C8">
-        <v>0.01005026881223696</v>
+        <v>-0.01183735657137053</v>
       </c>
       <c r="D8">
-        <v>0.02634880175884358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03020696684121116</v>
+      </c>
+      <c r="E8">
+        <v>-0.01783363590842645</v>
+      </c>
+      <c r="F8">
+        <v>-0.02835580201127239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06970278522171285</v>
+        <v>0.07150076809948495</v>
       </c>
       <c r="C9">
-        <v>-0.01603658301595061</v>
+        <v>0.0109105248688327</v>
       </c>
       <c r="D9">
-        <v>0.08035821476067065</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08576356458555547</v>
+      </c>
+      <c r="E9">
+        <v>-0.02480665244256624</v>
+      </c>
+      <c r="F9">
+        <v>0.0493146495048044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08507601502355035</v>
+        <v>0.08667146379609139</v>
       </c>
       <c r="C10">
-        <v>-0.01635100495148036</v>
+        <v>0.02165492265749528</v>
       </c>
       <c r="D10">
-        <v>-0.1662141074314122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1593351815439328</v>
+      </c>
+      <c r="E10">
+        <v>0.03190114137972179</v>
+      </c>
+      <c r="F10">
+        <v>-0.05874780000028229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09093984912428099</v>
+        <v>0.08768254471637592</v>
       </c>
       <c r="C11">
-        <v>-0.01735630970034791</v>
+        <v>0.01211192144390806</v>
       </c>
       <c r="D11">
-        <v>0.1116257420997662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.118119175891366</v>
+      </c>
+      <c r="E11">
+        <v>-0.04986075091834091</v>
+      </c>
+      <c r="F11">
+        <v>0.02642873832296158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09691376477531187</v>
+        <v>0.09081687189496558</v>
       </c>
       <c r="C12">
-        <v>-0.0157390086182174</v>
+        <v>0.009655538041474973</v>
       </c>
       <c r="D12">
-        <v>0.118513343891313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1329610932360252</v>
+      </c>
+      <c r="E12">
+        <v>-0.04915531436452485</v>
+      </c>
+      <c r="F12">
+        <v>0.03241490084967599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04478320203845104</v>
+        <v>0.04371600571685881</v>
       </c>
       <c r="C13">
-        <v>-0.006683989024023744</v>
+        <v>0.002915038117354694</v>
       </c>
       <c r="D13">
-        <v>0.04489654067353854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05419924345561767</v>
+      </c>
+      <c r="E13">
+        <v>0.0002032527049140119</v>
+      </c>
+      <c r="F13">
+        <v>0.004534068136966701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01966976553945548</v>
+        <v>0.02349431695679155</v>
       </c>
       <c r="C14">
-        <v>-0.01522121556501226</v>
+        <v>0.01405187013742889</v>
       </c>
       <c r="D14">
-        <v>0.0317449786102228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03271180853796259</v>
+      </c>
+      <c r="E14">
+        <v>-0.02010567516687571</v>
+      </c>
+      <c r="F14">
+        <v>0.01266576708570066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03473581736584819</v>
+        <v>0.03452970182094982</v>
       </c>
       <c r="C15">
-        <v>-0.007739436200301208</v>
+        <v>0.005955376035673393</v>
       </c>
       <c r="D15">
-        <v>0.04595044021265696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04661706587979686</v>
+      </c>
+      <c r="E15">
+        <v>-0.008662811098781439</v>
+      </c>
+      <c r="F15">
+        <v>0.02972539251361014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07515196446854663</v>
+        <v>0.07252298338598531</v>
       </c>
       <c r="C16">
-        <v>-0.007725363727807379</v>
+        <v>0.002103189299508442</v>
       </c>
       <c r="D16">
-        <v>0.1151299717201793</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1291736156304183</v>
+      </c>
+      <c r="E16">
+        <v>-0.06401294754217515</v>
+      </c>
+      <c r="F16">
+        <v>0.02941798295601408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001147013120644422</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003523483854906174</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002025609680812967</v>
+      </c>
+      <c r="E17">
+        <v>-0.001548920130835753</v>
+      </c>
+      <c r="F17">
+        <v>-0.002250176897328551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02465746502662667</v>
+        <v>0.04245367636990851</v>
       </c>
       <c r="C18">
-        <v>0.001859549058131608</v>
+        <v>-0.001823312564495201</v>
       </c>
       <c r="D18">
-        <v>0.02252705776311969</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01585327471979679</v>
+      </c>
+      <c r="E18">
+        <v>0.005596250180780893</v>
+      </c>
+      <c r="F18">
+        <v>-0.009225468275278906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06470634105805242</v>
+        <v>0.06300017898764043</v>
       </c>
       <c r="C20">
-        <v>-0.005742851469716438</v>
+        <v>0.001809116271468477</v>
       </c>
       <c r="D20">
-        <v>0.07241016159692885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0790645527837783</v>
+      </c>
+      <c r="E20">
+        <v>-0.06060365134858222</v>
+      </c>
+      <c r="F20">
+        <v>0.03023741562598861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04124946172545284</v>
+        <v>0.04255958833626248</v>
       </c>
       <c r="C21">
-        <v>-0.009872493593683427</v>
+        <v>0.00725640320688962</v>
       </c>
       <c r="D21">
-        <v>0.03332917535090009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03549872395135963</v>
+      </c>
+      <c r="E21">
+        <v>-0.001276729742508512</v>
+      </c>
+      <c r="F21">
+        <v>-0.02412743723993949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04059451063757586</v>
+        <v>0.04237283579995622</v>
       </c>
       <c r="C22">
-        <v>-0.00127086253429855</v>
+        <v>0.0009297988927938631</v>
       </c>
       <c r="D22">
-        <v>0.001321566782641055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.007111176221149951</v>
+      </c>
+      <c r="E22">
+        <v>-0.03711884431501086</v>
+      </c>
+      <c r="F22">
+        <v>-0.04792159946734351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04054963341769378</v>
+        <v>0.04234208851853402</v>
       </c>
       <c r="C23">
-        <v>-0.001257122544999264</v>
+        <v>0.0009182336313631899</v>
       </c>
       <c r="D23">
-        <v>0.001350596622911671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.007125909638173541</v>
+      </c>
+      <c r="E23">
+        <v>-0.03714720886140815</v>
+      </c>
+      <c r="F23">
+        <v>-0.04797525372446272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08255885502376395</v>
+        <v>0.07853088244946441</v>
       </c>
       <c r="C24">
-        <v>-0.00842205319244399</v>
+        <v>0.002995983117547253</v>
       </c>
       <c r="D24">
-        <v>0.1155877416421157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1213228893775983</v>
+      </c>
+      <c r="E24">
+        <v>-0.05162490832350152</v>
+      </c>
+      <c r="F24">
+        <v>0.03201319485696635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08686717257940836</v>
+        <v>0.08332114220571282</v>
       </c>
       <c r="C25">
-        <v>-0.01058431765753239</v>
+        <v>0.0056760744798462</v>
       </c>
       <c r="D25">
-        <v>0.1037504395828763</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1104738756903297</v>
+      </c>
+      <c r="E25">
+        <v>-0.03443399898950904</v>
+      </c>
+      <c r="F25">
+        <v>0.02904604934074246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05814621138212724</v>
+        <v>0.06093393864504963</v>
       </c>
       <c r="C26">
-        <v>-0.01844196159433894</v>
+        <v>0.01522146209173575</v>
       </c>
       <c r="D26">
-        <v>0.0344877411075816</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04461939179476697</v>
+      </c>
+      <c r="E26">
+        <v>-0.03185564589887217</v>
+      </c>
+      <c r="F26">
+        <v>-0.006802528297413561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1339546295304484</v>
+        <v>0.1431566272798273</v>
       </c>
       <c r="C28">
-        <v>-0.01592930688873605</v>
+        <v>0.02381727085462657</v>
       </c>
       <c r="D28">
-        <v>-0.2659838105223244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.259450678282914</v>
+      </c>
+      <c r="E28">
+        <v>0.06605440423510898</v>
+      </c>
+      <c r="F28">
+        <v>0.004355324162497559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02608594775823606</v>
+        <v>0.02868294475771213</v>
       </c>
       <c r="C29">
-        <v>-0.01003021284434963</v>
+        <v>0.009275479850669217</v>
       </c>
       <c r="D29">
-        <v>0.02929910765446695</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02993854280230488</v>
+      </c>
+      <c r="E29">
+        <v>-0.01766056121420997</v>
+      </c>
+      <c r="F29">
+        <v>-0.0126279215643893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05891684123614612</v>
+        <v>0.05592511013680379</v>
       </c>
       <c r="C30">
-        <v>-0.007933121471524768</v>
+        <v>0.002882118597630365</v>
       </c>
       <c r="D30">
-        <v>0.07894129141500456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08715544377762612</v>
+      </c>
+      <c r="E30">
+        <v>-0.01224191835781756</v>
+      </c>
+      <c r="F30">
+        <v>0.07858606685113717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05090018377567133</v>
+        <v>0.05126396101204568</v>
       </c>
       <c r="C31">
-        <v>-0.01775473982597867</v>
+        <v>0.01643338071127054</v>
       </c>
       <c r="D31">
-        <v>0.02150845354767751</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02435764651502066</v>
+      </c>
+      <c r="E31">
+        <v>-0.0291611837282571</v>
+      </c>
+      <c r="F31">
+        <v>-0.0007994847177436368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.0480473324980789</v>
+        <v>0.05176968298653275</v>
       </c>
       <c r="C32">
-        <v>-0.002320191277186315</v>
+        <v>-0.000968350999444819</v>
       </c>
       <c r="D32">
-        <v>0.0283862288972878</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03326939555227094</v>
+      </c>
+      <c r="E32">
+        <v>-0.03466569874525183</v>
+      </c>
+      <c r="F32">
+        <v>0.003037737793171504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09116564324157723</v>
+        <v>0.09077361651579159</v>
       </c>
       <c r="C33">
-        <v>-0.01394127622745717</v>
+        <v>0.008052410140758758</v>
       </c>
       <c r="D33">
-        <v>0.09074191523793557</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1045101295878852</v>
+      </c>
+      <c r="E33">
+        <v>-0.04723617241675639</v>
+      </c>
+      <c r="F33">
+        <v>0.043931522510942</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06936843554695685</v>
+        <v>0.0675244534730681</v>
       </c>
       <c r="C34">
-        <v>-0.01588593498810885</v>
+        <v>0.01113594180785104</v>
       </c>
       <c r="D34">
-        <v>0.09687342539600516</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1090683507507147</v>
+      </c>
+      <c r="E34">
+        <v>-0.03728142360279556</v>
+      </c>
+      <c r="F34">
+        <v>0.03603820044497542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.0258055012907165</v>
+        <v>0.02735638057283457</v>
       </c>
       <c r="C35">
-        <v>-0.004140542629598586</v>
+        <v>0.003628125880110077</v>
       </c>
       <c r="D35">
-        <v>0.008147140826767939</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0115875568190148</v>
+      </c>
+      <c r="E35">
+        <v>-0.01513433660666061</v>
+      </c>
+      <c r="F35">
+        <v>0.0004136709515365719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02534052686666564</v>
+        <v>0.0288855626119511</v>
       </c>
       <c r="C36">
-        <v>-0.008332100251865768</v>
+        <v>0.007246945952796657</v>
       </c>
       <c r="D36">
-        <v>0.03820151136462471</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03968679101815233</v>
+      </c>
+      <c r="E36">
+        <v>-0.01886915874238872</v>
+      </c>
+      <c r="F36">
+        <v>0.0156724133213108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002078005095649902</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.000619542497993501</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003109534982074666</v>
+      </c>
+      <c r="E37">
+        <v>-0.0002570932106054404</v>
+      </c>
+      <c r="F37">
+        <v>-0.001580626232305579</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1107913800224775</v>
+        <v>0.09962534068252728</v>
       </c>
       <c r="C39">
-        <v>-0.02323369877122136</v>
+        <v>0.01679142842856103</v>
       </c>
       <c r="D39">
-        <v>0.1486366104484135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1519615007385229</v>
+      </c>
+      <c r="E39">
+        <v>-0.06113129556522418</v>
+      </c>
+      <c r="F39">
+        <v>0.02257547347415648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03894756513197744</v>
+        <v>0.04428481880268663</v>
       </c>
       <c r="C40">
-        <v>-0.009588951007835498</v>
+        <v>0.008210426127940554</v>
       </c>
       <c r="D40">
-        <v>0.02370538222954334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03256749108771603</v>
+      </c>
+      <c r="E40">
+        <v>-0.002993394143306799</v>
+      </c>
+      <c r="F40">
+        <v>-0.01532261301121667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02451653122120093</v>
+        <v>0.02684088674082693</v>
       </c>
       <c r="C41">
-        <v>-0.007504974841664276</v>
+        <v>0.006897915055539432</v>
       </c>
       <c r="D41">
-        <v>0.00768258603311815</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009851555229033603</v>
+      </c>
+      <c r="E41">
+        <v>-0.01276093727023654</v>
+      </c>
+      <c r="F41">
+        <v>-0.007358058057903165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04134060052228426</v>
+        <v>0.039810588628909</v>
       </c>
       <c r="C43">
-        <v>-0.008473214170264224</v>
+        <v>0.007767859355888949</v>
       </c>
       <c r="D43">
-        <v>0.01699064137014883</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01916299033545575</v>
+      </c>
+      <c r="E43">
+        <v>-0.02664288688376144</v>
+      </c>
+      <c r="F43">
+        <v>-0.01574599977265782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06809468786923964</v>
+        <v>0.07773665883793617</v>
       </c>
       <c r="C44">
-        <v>-0.02434713471137421</v>
+        <v>0.02037585408226774</v>
       </c>
       <c r="D44">
-        <v>0.09513707902980038</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09574188988119779</v>
+      </c>
+      <c r="E44">
+        <v>-0.06214276531585752</v>
+      </c>
+      <c r="F44">
+        <v>0.1691706761837037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02161106196807299</v>
+        <v>0.0242220880106023</v>
       </c>
       <c r="C46">
-        <v>-0.004562218522373001</v>
+        <v>0.003807141158237513</v>
       </c>
       <c r="D46">
-        <v>0.008395615173694436</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01208531730320566</v>
+      </c>
+      <c r="E46">
+        <v>-0.03005529084047398</v>
+      </c>
+      <c r="F46">
+        <v>-0.004410760659204782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05365047227536063</v>
+        <v>0.05287141829840104</v>
       </c>
       <c r="C47">
-        <v>-0.005686858036988603</v>
+        <v>0.004719080433605125</v>
       </c>
       <c r="D47">
-        <v>0.007410714076147912</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01090218445899876</v>
+      </c>
+      <c r="E47">
+        <v>-0.0242531655877026</v>
+      </c>
+      <c r="F47">
+        <v>-0.03143397071257568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04854882142540191</v>
+        <v>0.05124919542860319</v>
       </c>
       <c r="C48">
-        <v>-0.005331339317878625</v>
+        <v>0.002687722911793072</v>
       </c>
       <c r="D48">
-        <v>0.04722001152966191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05014442144262369</v>
+      </c>
+      <c r="E48">
+        <v>0.003554117685608</v>
+      </c>
+      <c r="F48">
+        <v>0.01270795832289351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1985855525889408</v>
+        <v>0.199905595587996</v>
       </c>
       <c r="C49">
-        <v>-0.02400809905681521</v>
+        <v>0.02189806109218811</v>
       </c>
       <c r="D49">
-        <v>-0.0130430651139762</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004365729722581277</v>
+      </c>
+      <c r="E49">
+        <v>-0.03006512629598939</v>
+      </c>
+      <c r="F49">
+        <v>0.0493222802954367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04946754937644075</v>
+        <v>0.05145911289919903</v>
       </c>
       <c r="C50">
-        <v>-0.0134154256309572</v>
+        <v>0.01206121648750118</v>
       </c>
       <c r="D50">
-        <v>0.02071689217486313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02375184021859964</v>
+      </c>
+      <c r="E50">
+        <v>-0.03159248192912242</v>
+      </c>
+      <c r="F50">
+        <v>0.009709475881065849</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1546132768013733</v>
+        <v>0.1477077935648775</v>
       </c>
       <c r="C52">
-        <v>-0.02182600766803543</v>
+        <v>0.01969557688905409</v>
       </c>
       <c r="D52">
-        <v>0.04110985434996296</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04251928979621618</v>
+      </c>
+      <c r="E52">
+        <v>-0.02012447191818045</v>
+      </c>
+      <c r="F52">
+        <v>0.04218694116602614</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1739837312367192</v>
+        <v>0.1681678856125749</v>
       </c>
       <c r="C53">
-        <v>-0.02300991110492382</v>
+        <v>0.02285049263724543</v>
       </c>
       <c r="D53">
-        <v>0.004741309859807118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005800354344854356</v>
+      </c>
+      <c r="E53">
+        <v>-0.02667345036421472</v>
+      </c>
+      <c r="F53">
+        <v>0.07528083593783137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01718991795278842</v>
+        <v>0.01951017316432631</v>
       </c>
       <c r="C54">
-        <v>-0.01226678923180613</v>
+        <v>0.01112695794358441</v>
       </c>
       <c r="D54">
-        <v>0.02983325124590162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0302555018445496</v>
+      </c>
+      <c r="E54">
+        <v>-0.02231912306065325</v>
+      </c>
+      <c r="F54">
+        <v>-0.001990940614458102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1183853649728331</v>
+        <v>0.1166475210614315</v>
       </c>
       <c r="C55">
-        <v>-0.02025329953699123</v>
+        <v>0.0200808653383086</v>
       </c>
       <c r="D55">
-        <v>0.004088127123747214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008597197200031541</v>
+      </c>
+      <c r="E55">
+        <v>-0.02594853468783136</v>
+      </c>
+      <c r="F55">
+        <v>0.04674920575483637</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1807319944620951</v>
+        <v>0.1757260363963473</v>
       </c>
       <c r="C56">
-        <v>-0.02119897399059723</v>
+        <v>0.02119527123904093</v>
       </c>
       <c r="D56">
-        <v>-0.007176597092590135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002483866553609715</v>
+      </c>
+      <c r="E56">
+        <v>-0.03126564527858183</v>
+      </c>
+      <c r="F56">
+        <v>0.0559333707684849</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04638140595877726</v>
+        <v>0.04512333447776182</v>
       </c>
       <c r="C58">
-        <v>-0.004926317303365569</v>
+        <v>8.41777959824455e-05</v>
       </c>
       <c r="D58">
-        <v>0.06592296827787032</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0763379726780954</v>
+      </c>
+      <c r="E58">
+        <v>-0.0354561503591936</v>
+      </c>
+      <c r="F58">
+        <v>-0.03628303108573266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1603048816089783</v>
+        <v>0.1671326695307267</v>
       </c>
       <c r="C59">
-        <v>-0.01772896551064321</v>
+        <v>0.02429389037339965</v>
       </c>
       <c r="D59">
-        <v>-0.2242606310546164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2171372543082435</v>
+      </c>
+      <c r="E59">
+        <v>0.04970748440699421</v>
+      </c>
+      <c r="F59">
+        <v>-0.0423858021096277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2377920603033594</v>
+        <v>0.2297296650697272</v>
       </c>
       <c r="C60">
-        <v>-0.00522458365542914</v>
+        <v>0.001992147661420508</v>
       </c>
       <c r="D60">
-        <v>0.03613577281260493</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03879446788047777</v>
+      </c>
+      <c r="E60">
+        <v>-0.001017547302135225</v>
+      </c>
+      <c r="F60">
+        <v>0.005784562306843601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08107450072893835</v>
+        <v>0.07424912264414885</v>
       </c>
       <c r="C61">
-        <v>-0.01691622183259818</v>
+        <v>0.01144111113411068</v>
       </c>
       <c r="D61">
-        <v>0.1104518064294333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1168562547775407</v>
+      </c>
+      <c r="E61">
+        <v>-0.03873569522394637</v>
+      </c>
+      <c r="F61">
+        <v>0.007982275199223621</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.172885916963271</v>
+        <v>0.1690472160868079</v>
       </c>
       <c r="C62">
-        <v>-0.02487793486486915</v>
+        <v>0.023832293308691</v>
       </c>
       <c r="D62">
-        <v>0.0001880035138657485</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006570763394874965</v>
+      </c>
+      <c r="E62">
+        <v>-0.03355394346740223</v>
+      </c>
+      <c r="F62">
+        <v>0.04152103200033553</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04180076995959203</v>
+        <v>0.04606025460169</v>
       </c>
       <c r="C63">
-        <v>-0.005738763544386954</v>
+        <v>0.002420057313372584</v>
       </c>
       <c r="D63">
-        <v>0.04941795860963389</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05992797131323946</v>
+      </c>
+      <c r="E63">
+        <v>-0.02395253528402073</v>
+      </c>
+      <c r="F63">
+        <v>0.0009458809919571118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1144733559057902</v>
+        <v>0.1112795023616504</v>
       </c>
       <c r="C64">
-        <v>-0.01703378079638997</v>
+        <v>0.0137738757069113</v>
       </c>
       <c r="D64">
-        <v>0.03384942801041973</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04175638084896845</v>
+      </c>
+      <c r="E64">
+        <v>-0.02468454607037822</v>
+      </c>
+      <c r="F64">
+        <v>0.02731700123156996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1447714860096083</v>
+        <v>0.1520786702940906</v>
       </c>
       <c r="C65">
-        <v>-0.03700909781755808</v>
+        <v>0.03664719063826858</v>
       </c>
       <c r="D65">
-        <v>-0.05788745565175334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04563918079453386</v>
+      </c>
+      <c r="E65">
+        <v>-0.004161303478890559</v>
+      </c>
+      <c r="F65">
+        <v>0.03760436090375524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1330936425456609</v>
+        <v>0.1193734287807455</v>
       </c>
       <c r="C66">
-        <v>-0.02170841135676526</v>
+        <v>0.01503858184323599</v>
       </c>
       <c r="D66">
-        <v>0.1317549123774372</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1410404970547248</v>
+      </c>
+      <c r="E66">
+        <v>-0.06516291095070666</v>
+      </c>
+      <c r="F66">
+        <v>0.02852183404752131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06328966581235285</v>
+        <v>0.05589749172586248</v>
       </c>
       <c r="C67">
-        <v>-0.006367960507288741</v>
+        <v>0.004013322228438019</v>
       </c>
       <c r="D67">
-        <v>0.05511097262931135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05846200781812507</v>
+      </c>
+      <c r="E67">
+        <v>-0.0209559262155688</v>
+      </c>
+      <c r="F67">
+        <v>-0.03415628039575928</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1074476271816193</v>
+        <v>0.1175020718883081</v>
       </c>
       <c r="C68">
-        <v>-0.02597016679069701</v>
+        <v>0.03459632155754117</v>
       </c>
       <c r="D68">
-        <v>-0.2643732012686488</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.260791899403689</v>
+      </c>
+      <c r="E68">
+        <v>0.0878959477020277</v>
+      </c>
+      <c r="F68">
+        <v>0.000144479719164027</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.038595159462984</v>
+        <v>0.03779318900987794</v>
       </c>
       <c r="C69">
-        <v>-0.002349316351122115</v>
+        <v>0.001462197339497727</v>
       </c>
       <c r="D69">
-        <v>0.006725278972517161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008269254943198514</v>
+      </c>
+      <c r="E69">
+        <v>-0.02571202484825391</v>
+      </c>
+      <c r="F69">
+        <v>-5.42916253676445e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06726349786068116</v>
+        <v>0.06703313770285722</v>
       </c>
       <c r="C70">
-        <v>0.02410035645292248</v>
+        <v>-0.02633190917205457</v>
       </c>
       <c r="D70">
-        <v>0.02179717532045806</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02724759831406599</v>
+      </c>
+      <c r="E70">
+        <v>0.02429603725741563</v>
+      </c>
+      <c r="F70">
+        <v>-0.1829017227656195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1258396304287228</v>
+        <v>0.137434597174569</v>
       </c>
       <c r="C71">
-        <v>-0.03059988375170074</v>
+        <v>0.03914683330088485</v>
       </c>
       <c r="D71">
-        <v>-0.2802057164114235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2702103202950584</v>
+      </c>
+      <c r="E71">
+        <v>0.09784859840448386</v>
+      </c>
+      <c r="F71">
+        <v>0.005567084441439055</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1370248940008237</v>
+        <v>0.143882108179662</v>
       </c>
       <c r="C72">
-        <v>-0.02934956076678188</v>
+        <v>0.02961561568469276</v>
       </c>
       <c r="D72">
-        <v>-0.0001946713585610055</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003564515843849502</v>
+      </c>
+      <c r="E72">
+        <v>-0.03940434673441126</v>
+      </c>
+      <c r="F72">
+        <v>0.02830156090110778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2031492045933929</v>
+        <v>0.2036891237468432</v>
       </c>
       <c r="C73">
-        <v>-0.01901709324601171</v>
+        <v>0.01519124517578128</v>
       </c>
       <c r="D73">
-        <v>0.007446919717343755</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01827978194053661</v>
+      </c>
+      <c r="E73">
+        <v>-0.06366190401970082</v>
+      </c>
+      <c r="F73">
+        <v>0.04392058598346082</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09137202664859119</v>
+        <v>0.09228125625125462</v>
       </c>
       <c r="C74">
-        <v>-0.01505262561507917</v>
+        <v>0.01437552049277981</v>
       </c>
       <c r="D74">
-        <v>0.01384091253952533</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01687136466296024</v>
+      </c>
+      <c r="E74">
+        <v>-0.04189184448733085</v>
+      </c>
+      <c r="F74">
+        <v>0.05288093461886446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1333764734167822</v>
+        <v>0.1256073037258667</v>
       </c>
       <c r="C75">
-        <v>-0.03250519254878719</v>
+        <v>0.03058139993579809</v>
       </c>
       <c r="D75">
-        <v>0.02379407825978464</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02954332325288883</v>
+      </c>
+      <c r="E75">
+        <v>-0.05547216127643092</v>
+      </c>
+      <c r="F75">
+        <v>0.02172697673184246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08201496869216013</v>
+        <v>0.09232524320484795</v>
       </c>
       <c r="C77">
-        <v>-0.01458046576582425</v>
+        <v>0.00933760211942585</v>
       </c>
       <c r="D77">
-        <v>0.1138768365232014</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1171202222537732</v>
+      </c>
+      <c r="E77">
+        <v>-0.04701610037537213</v>
+      </c>
+      <c r="F77">
+        <v>0.03619362495677802</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1027234650902026</v>
+        <v>0.1024128900234811</v>
       </c>
       <c r="C78">
-        <v>-0.04513774870017218</v>
+        <v>0.04101376992895785</v>
       </c>
       <c r="D78">
-        <v>0.1137594348491159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1128201755829595</v>
+      </c>
+      <c r="E78">
+        <v>-0.07380840702018203</v>
+      </c>
+      <c r="F78">
+        <v>0.0510461672895051</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1664434224266264</v>
+        <v>0.1632680124673176</v>
       </c>
       <c r="C79">
-        <v>-0.02752167962089177</v>
+        <v>0.02626079378314034</v>
       </c>
       <c r="D79">
-        <v>0.005927847224973327</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01194181054430037</v>
+      </c>
+      <c r="E79">
+        <v>-0.043050170762548</v>
+      </c>
+      <c r="F79">
+        <v>0.01333946807784011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08136415656406634</v>
+        <v>0.07971298736773014</v>
       </c>
       <c r="C80">
-        <v>-0.003030038294913539</v>
+        <v>0.000144632707430849</v>
       </c>
       <c r="D80">
-        <v>0.05296805419395372</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05385509116121279</v>
+      </c>
+      <c r="E80">
+        <v>-0.03622224057118316</v>
+      </c>
+      <c r="F80">
+        <v>-0.02723331756415305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1203783890270572</v>
+        <v>0.115478076714363</v>
       </c>
       <c r="C81">
-        <v>-0.03439300118249764</v>
+        <v>0.03382357102902209</v>
       </c>
       <c r="D81">
-        <v>0.008017660463183054</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01233737603394463</v>
+      </c>
+      <c r="E81">
+        <v>-0.05256799780002214</v>
+      </c>
+      <c r="F81">
+        <v>0.0184901840375817</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1656619061551197</v>
+        <v>0.1646011933060375</v>
       </c>
       <c r="C82">
-        <v>-0.02796310239753655</v>
+        <v>0.02833565642903512</v>
       </c>
       <c r="D82">
-        <v>0.005988126248787857</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003214511920432619</v>
+      </c>
+      <c r="E82">
+        <v>-0.02545472308308136</v>
+      </c>
+      <c r="F82">
+        <v>0.08326077103248716</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06250338440726139</v>
+        <v>0.05641962303493978</v>
       </c>
       <c r="C83">
-        <v>-0.005822649647188829</v>
+        <v>0.003535044367245972</v>
       </c>
       <c r="D83">
-        <v>0.04321105970527005</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04611862264088187</v>
+      </c>
+      <c r="E83">
+        <v>-0.003641769569244331</v>
+      </c>
+      <c r="F83">
+        <v>-0.03681779126688249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06008701027340366</v>
+        <v>0.05494742731243805</v>
       </c>
       <c r="C84">
-        <v>-0.01356217809295385</v>
+        <v>0.01076755803315871</v>
       </c>
       <c r="D84">
-        <v>0.07067697307297492</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07398678618468951</v>
+      </c>
+      <c r="E84">
+        <v>-0.01237440095633786</v>
+      </c>
+      <c r="F84">
+        <v>0.01501623706333929</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.139908361052195</v>
+        <v>0.1351347102980864</v>
       </c>
       <c r="C85">
-        <v>-0.03158539493792929</v>
+        <v>0.0309749575683974</v>
       </c>
       <c r="D85">
-        <v>0.006251730635884476</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009583289476595518</v>
+      </c>
+      <c r="E85">
+        <v>-0.03515178098086544</v>
+      </c>
+      <c r="F85">
+        <v>0.04911740818678417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1002951309370675</v>
+        <v>0.09292071865568786</v>
       </c>
       <c r="C86">
-        <v>0.001976030100040607</v>
+        <v>-0.005150732691168867</v>
       </c>
       <c r="D86">
-        <v>0.01759791292826503</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05217122194329793</v>
+      </c>
+      <c r="E86">
+        <v>-0.2352802805782956</v>
+      </c>
+      <c r="F86">
+        <v>-0.8945551875426978</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09599122489465767</v>
+        <v>0.09212330783923191</v>
       </c>
       <c r="C87">
-        <v>-0.02875600049607938</v>
+        <v>0.02077301798465096</v>
       </c>
       <c r="D87">
-        <v>0.07198132882909096</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09207905014828016</v>
+      </c>
+      <c r="E87">
+        <v>0.05400876595992219</v>
+      </c>
+      <c r="F87">
+        <v>0.04758876241705676</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06266550968305289</v>
+        <v>0.06103633953093658</v>
       </c>
       <c r="C88">
-        <v>-0.00605527468050706</v>
+        <v>0.003098117878072421</v>
       </c>
       <c r="D88">
-        <v>0.04873521209730489</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04955303499358859</v>
+      </c>
+      <c r="E88">
+        <v>-0.02506004538492605</v>
+      </c>
+      <c r="F88">
+        <v>0.01410376166555424</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1179002720232387</v>
+        <v>0.1270072856186386</v>
       </c>
       <c r="C89">
-        <v>-0.006691354992162616</v>
+        <v>0.01449414873563034</v>
       </c>
       <c r="D89">
-        <v>-0.2410481249579315</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2418157226440864</v>
+      </c>
+      <c r="E89">
+        <v>0.08941472836094677</v>
+      </c>
+      <c r="F89">
+        <v>-0.00832648017794402</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1382147231086753</v>
+        <v>0.1528409358624666</v>
       </c>
       <c r="C90">
-        <v>-0.02683776738871345</v>
+        <v>0.0358755493570375</v>
       </c>
       <c r="D90">
-        <v>-0.265875546600377</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2668813589204005</v>
+      </c>
+      <c r="E90">
+        <v>0.1131810038971306</v>
+      </c>
+      <c r="F90">
+        <v>-0.009494175202564776</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1216024767136529</v>
+        <v>0.1197428550217465</v>
       </c>
       <c r="C91">
-        <v>-0.02217768346270961</v>
+        <v>0.02223183906274081</v>
       </c>
       <c r="D91">
-        <v>-0.02086538001470722</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01749267488543482</v>
+      </c>
+      <c r="E91">
+        <v>-0.05334410076901312</v>
+      </c>
+      <c r="F91">
+        <v>-0.00131315804529298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1386929560677032</v>
+        <v>0.1453976557443119</v>
       </c>
       <c r="C92">
-        <v>-0.0175913140074128</v>
+        <v>0.02677129878501529</v>
       </c>
       <c r="D92">
-        <v>-0.296659989572699</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2929359358102021</v>
+      </c>
+      <c r="E92">
+        <v>0.1013237485800628</v>
+      </c>
+      <c r="F92">
+        <v>-0.01967209242016055</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1414875351981261</v>
+        <v>0.154484378706298</v>
       </c>
       <c r="C93">
-        <v>-0.02309815191840931</v>
+        <v>0.03109046932454219</v>
       </c>
       <c r="D93">
-        <v>-0.264700720524192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2632538117230328</v>
+      </c>
+      <c r="E93">
+        <v>0.07364177708961479</v>
+      </c>
+      <c r="F93">
+        <v>0.002620296284724023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.133322624951357</v>
+        <v>0.1255675741849292</v>
       </c>
       <c r="C94">
-        <v>-0.02898579846376201</v>
+        <v>0.02658689073510648</v>
       </c>
       <c r="D94">
-        <v>0.03830519154464433</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04117854495470007</v>
+      </c>
+      <c r="E94">
+        <v>-0.05704031199653002</v>
+      </c>
+      <c r="F94">
+        <v>0.03231573204205337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1277858809040563</v>
+        <v>0.1301767297617432</v>
       </c>
       <c r="C95">
-        <v>-0.01106248562052305</v>
+        <v>0.005732537158724608</v>
       </c>
       <c r="D95">
-        <v>0.08782216172422122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09882919854885494</v>
+      </c>
+      <c r="E95">
+        <v>-0.05948112739499251</v>
+      </c>
+      <c r="F95">
+        <v>0.004189417302218956</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1330288095573051</v>
+        <v>0.1252875294287978</v>
       </c>
       <c r="C96">
-        <v>0.9853822098848077</v>
+        <v>-0.9854056994532014</v>
       </c>
       <c r="D96">
-        <v>-0.01968012354117662</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04974187582270247</v>
+      </c>
+      <c r="E96">
+        <v>-0.05045872409057529</v>
+      </c>
+      <c r="F96">
+        <v>0.04321290454373155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1922067455352567</v>
+        <v>0.1958181355655549</v>
       </c>
       <c r="C97">
-        <v>0.00205264311508233</v>
+        <v>-0.002162019403769404</v>
       </c>
       <c r="D97">
-        <v>-0.03169545639313197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0319726746869259</v>
+      </c>
+      <c r="E97">
+        <v>-0.03102377817665808</v>
+      </c>
+      <c r="F97">
+        <v>-0.1172830874758606</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2007945904812924</v>
+        <v>0.2065512285692664</v>
       </c>
       <c r="C98">
-        <v>-0.01398692140077325</v>
+        <v>0.01003565510705318</v>
       </c>
       <c r="D98">
-        <v>0.01210972870307037</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01428555987040575</v>
+      </c>
+      <c r="E98">
+        <v>0.07749665265409239</v>
+      </c>
+      <c r="F98">
+        <v>-0.09625689996676796</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05619982603172737</v>
+        <v>0.05549221628589279</v>
       </c>
       <c r="C99">
-        <v>0.001483579717976676</v>
+        <v>-0.003495188584291081</v>
       </c>
       <c r="D99">
-        <v>0.03309020463017156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03974191891931218</v>
+      </c>
+      <c r="E99">
+        <v>-0.02319938404473326</v>
+      </c>
+      <c r="F99">
+        <v>0.003478829240314976</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1472863199758845</v>
+        <v>0.1331037368571367</v>
       </c>
       <c r="C100">
-        <v>0.0368160554208637</v>
+        <v>-0.0485824743998933</v>
       </c>
       <c r="D100">
-        <v>0.3920171989728741</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3558636849954711</v>
+      </c>
+      <c r="E100">
+        <v>0.8818535207146351</v>
+      </c>
+      <c r="F100">
+        <v>-0.1618093776778469</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0260681924612234</v>
+        <v>0.02871625028149495</v>
       </c>
       <c r="C101">
-        <v>-0.01002940607445485</v>
+        <v>0.009297981899870933</v>
       </c>
       <c r="D101">
-        <v>0.02884556226707628</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0294939546571616</v>
+      </c>
+      <c r="E101">
+        <v>-0.01721150168661444</v>
+      </c>
+      <c r="F101">
+        <v>-0.01405341675010588</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
